--- a/08kappa/fraud_tagger_dataframe_kappa.xlsx
+++ b/08kappa/fraud_tagger_dataframe_kappa.xlsx
@@ -22,13 +22,13 @@
     <t>kappa</t>
   </si>
   <si>
+    <t>schwenk@purdue.edu</t>
+  </si>
+  <si>
     <t>fu58@purdue.edu</t>
   </si>
   <si>
     <t>hu417@purdue.edu</t>
-  </si>
-  <si>
-    <t>schwenk@purdue.edu</t>
   </si>
   <si>
     <t>mspanier@purdue.edu</t>
@@ -411,7 +411,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.846153846153846</v>
+        <v>0.805970149253731</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -422,7 +422,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.846153846153846</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -433,7 +433,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.805970149253731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
